--- a/Proyectos/2019/1/P3572 - RECNOM,UACNOM;UACCON, David Guerra Tellez_EM/Compras/P3572 - RECNOM,UACNOM;UACCON, David Guerra Tellez_EM.xlsx
+++ b/Proyectos/2019/1/P3572 - RECNOM,UACNOM;UACCON, David Guerra Tellez_EM/Compras/P3572 - RECNOM,UACNOM;UACCON, David Guerra Tellez_EM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Documentos de Venta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EC16\Documents\SOSQTP\Proyectos\2019\1\P3572 - RECNOM,UACNOM;UACCON, David Guerra Tellez_EM\Compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B90D2A-D9F5-4C56-A615-455A19DF641E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9B9FE-566C-4467-B4B5-D33BC631E705}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="195" windowWidth="14025" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="120">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -999,7 +999,40 @@
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
-    <t>P3268</t>
+    <t>P3572</t>
+  </si>
+  <si>
+    <t>F4AF</t>
+  </si>
+  <si>
+    <t>47EC</t>
+  </si>
+  <si>
+    <t>DC8B</t>
+  </si>
+  <si>
+    <t>4C26</t>
+  </si>
+  <si>
+    <t>NOMINA  ANUAL</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>EC49</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>F0B2</t>
+  </si>
+  <si>
+    <t>2A53</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -3732,8 +3765,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4163,7 +4196,7 @@
       </c>
       <c r="S14" s="181">
         <f ca="1">TODAY()</f>
-        <v>43460</v>
+        <v>43475</v>
       </c>
       <c r="T14" s="182"/>
       <c r="U14" s="205"/>
@@ -4431,78 +4464,114 @@
     <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A23" s="137"/>
       <c r="B23" s="69">
-        <v>0</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+        <v>119</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>27</v>
+      </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="81"/>
+      <c r="L23" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>112</v>
+      </c>
       <c r="P23" s="44">
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="Q23" s="71">
         <v>0</v>
       </c>
       <c r="R23" s="42">
         <f t="shared" ref="R23:R32" si="0">(P23*B23)*(1-Q23)</f>
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="S23" s="73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T23" s="43">
         <f>R23*(1-S23)</f>
-        <v>0</v>
+        <v>1192.5</v>
       </c>
       <c r="U23" s="205"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="137"/>
       <c r="B24" s="69">
-        <v>0</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="81"/>
+      <c r="K24" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" s="81" t="s">
+        <v>118</v>
+      </c>
       <c r="P24" s="44">
-        <v>0</v>
+        <v>4980</v>
       </c>
       <c r="Q24" s="71">
         <v>0</v>
       </c>
       <c r="R24" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4980</v>
       </c>
       <c r="S24" s="73">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T24" s="43">
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="U24" s="205"/>
     </row>
@@ -4932,7 +5001,7 @@
       <c r="O36" s="161"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
-        <v>0</v>
+        <v>6570</v>
       </c>
       <c r="Q36" s="52"/>
       <c r="R36" s="154" t="s">
@@ -4941,7 +5010,7 @@
       <c r="S36" s="155"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
-        <v>0</v>
+        <v>4678.5</v>
       </c>
       <c r="U36" s="205"/>
     </row>
@@ -4971,7 +5040,7 @@
       <c r="O37" s="163"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
-        <v>0</v>
+        <v>6570</v>
       </c>
       <c r="Q37" s="77" t="s">
         <v>46</v>
@@ -4982,7 +5051,7 @@
       <c r="S37" s="155"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
-        <v>0</v>
+        <v>748.56000000000006</v>
       </c>
       <c r="U37" s="205"/>
     </row>
@@ -5041,7 +5110,7 @@
       <c r="S39" s="191"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
-        <v>0</v>
+        <v>5427.06</v>
       </c>
       <c r="U39" s="205"/>
     </row>
